--- a/public/assets/BOs/Loki.xlsx
+++ b/public/assets/BOs/Loki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Github\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2FE9BA-F349-4E5E-A6ED-60D47BB76BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA22E74B-8042-46FF-87C9-A10B05BAD995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="7320" windowWidth="43200" windowHeight="23445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil8" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="177">
   <si>
     <t>Archaic</t>
   </si>
@@ -890,296 +890,16 @@
     <t>Berserk builds a Temple</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Initial vills: 
-2 Vills + Ox Cart on Wood
-1 Vill build Ox Cart (Ox Cart to Gold), then builds a dock, then back to Wood</t>
-  </si>
-  <si>
     <t>Auto-Queue Fishing Ships</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 3 / 0 / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 / 3 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/ 3 / 1 / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 1 / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 / 4 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Build a House, Force Drop Wood for a new Fishing Ships for no idle time</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 2 / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 5 / 2 / 0 </t>
-    </r>
-  </si>
-  <si>
-    <t>Aim for 7 Fishing Ships, then Temple before 3.06,
-one extra boat after temple (stop auto-queue Fishing Ships)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 / 5 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 5 / 3 / 0</t>
-    </r>
-  </si>
-  <si>
     <t>Advance (3.36) - Freya</t>
   </si>
   <si>
     <t>Make a 2nd Dock</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">9  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ 3 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Vills transition:
-4 Food to Wood</t>
-  </si>
-  <si>
     <t>Pre-queue Hand Axe + Pickaxe</t>
-  </si>
-  <si>
-    <t>Build 1 more Fishing Ship (9 in total)</t>
   </si>
   <si>
     <t>Classical</t>
@@ -1194,9 +914,6 @@
   <si>
     <t>Focus: Fight the water defensively. 
 If needed, you can skip 1 War Boat to build a Longhouse/ Great Hall</t>
-  </si>
-  <si>
-    <t>Standard Water - Léonce</t>
   </si>
   <si>
     <r>
@@ -2038,13 +1755,366 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=aqS4eU0MAGU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freyr / Loki / Odin  - Water - DoD Léonce </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial vills: 
+2 Vills + Ox Cart on Wood
+1 Vill build Ox Cart (Ox Cart to Gold) then back to Wood</t>
+  </si>
+  <si>
+    <t>builds a dock</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>build house at 13 pop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ 3 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>build a second house before temple</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 3 / 0 </t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Food</t>
+  </si>
+  <si>
+    <t>Aim for 6 Fishing Ships, then Temple before 3.06,
+one extra boat after temple (stop auto-queue Fishing Ships)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5 / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 6 / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0 / 11</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Once 1 hersir and handaxe, swap all food to wood</t>
+  </si>
+  <si>
+    <t>Build more Fishing Ship (9 in total)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45">
+  <fonts count="51">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2224,24 +2294,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2345,8 +2397,72 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2385,8 +2501,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2458,7 +2580,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2480,66 +2602,75 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2558,53 +2689,45 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte 3" xfId="4" xr:uid="{44848195-F8FB-484D-92D0-0A4C4ADAD7A1}"/>
@@ -2826,11 +2949,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD0D2D5-86B8-480D-8FAA-F483B95C2298}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
@@ -2839,20 +2962,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
@@ -2863,32 +2986,32 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="29.25">
-      <c r="A4" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>153</v>
+      <c r="A4" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>155</v>
+      <c r="A5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="61" t="s">
-        <v>157</v>
+      <c r="A6" s="31" t="s">
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -2897,43 +3020,43 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>159</v>
+      <c r="A7" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>162</v>
+      <c r="A8" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>164</v>
+      <c r="A9" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="A10" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="14.25">
       <c r="A11" s="1" t="s">
@@ -2941,14 +3064,14 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>168</v>
+      <c r="A12" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>151</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2959,18 +3082,18 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="64"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="A15" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="1" t="s">
@@ -2978,52 +3101,52 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="66"/>
+      <c r="A17" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4" ht="12.75">
-      <c r="C18" s="67"/>
+      <c r="C18" s="37"/>
     </row>
     <row r="19" spans="1:4" ht="12.75">
-      <c r="A19" s="30" t="s">
-        <v>173</v>
+      <c r="A19" s="17" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75">
-      <c r="A20" s="68"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="69"/>
+      <c r="A21" s="38"/>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="69"/>
+      <c r="A22" s="38"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
     </row>
     <row r="24" spans="1:4" ht="12.75">
-      <c r="A24" s="71"/>
+      <c r="A24" s="40"/>
     </row>
     <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="70"/>
+      <c r="A25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="12.75">
-      <c r="A26" s="71"/>
+      <c r="A26" s="40"/>
     </row>
     <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="70"/>
+      <c r="A27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3045,23 +3168,23 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4" ht="57.75" thickBot="1">
       <c r="A3" s="9" t="s">
@@ -3174,12 +3297,12 @@
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:4" ht="57.75" thickBot="1">
       <c r="A14" s="9" t="s">
@@ -3202,12 +3325,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:8" ht="57.75" thickBot="1">
       <c r="A17" s="9" t="s">
@@ -3228,20 +3351,20 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A19" s="60"/>
+      <c r="A19" s="30"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="21" spans="1:8" ht="18.75" thickBot="1">
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickBot="1">
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1">
       <c r="E23" s="9"/>
@@ -3304,10 +3427,10 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="5:8" ht="16.5" thickBot="1">
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
     </row>
     <row r="34" spans="5:8" ht="15" thickBot="1">
       <c r="E34" s="9"/>
@@ -3322,10 +3445,10 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="5:8" ht="16.5" thickBot="1">
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
     </row>
     <row r="37" spans="5:8" ht="15" thickBot="1">
       <c r="E37" s="9"/>
@@ -3358,254 +3481,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801EE067-6144-4E08-B3A1-D134A6E65E1F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="A1" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" ht="171.75">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+    </row>
+    <row r="4" spans="1:4" ht="143.25">
+      <c r="A4" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29.25">
+      <c r="A5" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="60"/>
+    </row>
+    <row r="6" spans="1:4" ht="57.75">
+      <c r="A6" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="D6" s="64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="60"/>
+    </row>
+    <row r="8" spans="1:4" ht="29.25">
+      <c r="A8" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="1:4" ht="29.25">
+      <c r="A10" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="186">
+      <c r="A11" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="67"/>
+      <c r="C15" s="68" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="14" t="s">
+    <row r="16" spans="1:4" ht="86.25">
+      <c r="A16" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="29.25">
-      <c r="A6" s="14" t="s">
+      <c r="D16" s="70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="14" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="1:4" ht="128.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="14" t="s">
+      <c r="D18" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="14" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="171">
+      <c r="A19" s="59"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="60" t="s">
         <v>93</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="186">
-      <c r="A11" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="20"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" ht="72">
-      <c r="A16" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-    </row>
-    <row r="18" spans="1:4" ht="128.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="171">
-      <c r="A19" s="13"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="28"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="30"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="52"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="31"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="31"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="33"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="32"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="33"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="32"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -3630,137 +3754,137 @@
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" ht="195.75">
-      <c r="A4" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="A4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>113</v>
+      <c r="D4" s="22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" ht="180.75">
-      <c r="A6" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="34"/>
+      <c r="A6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="34" t="s">
-        <v>122</v>
+      <c r="C10" s="23"/>
+      <c r="D10" s="21" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3780,23 +3904,23 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
@@ -3918,12 +4042,12 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="1"/>
@@ -3946,12 +4070,12 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="1" t="s">
@@ -3980,12 +4104,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="5"/>
@@ -4007,12 +4131,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="1" t="s">
@@ -4092,205 +4216,205 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" ht="195.75">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="180.75">
+      <c r="A6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="35" t="s">
+      <c r="B8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="34" t="s">
+      <c r="B9" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:4" ht="180.75">
-      <c r="A6" s="34" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="75.75">
+      <c r="A12" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+    </row>
+    <row r="15" spans="1:4" ht="135">
+      <c r="A15" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+    </row>
+    <row r="17" spans="1:4" ht="30.75">
+      <c r="A17" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="34" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="120">
+      <c r="B18" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="34" t="s">
+      <c r="C18" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="34"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="34" t="s">
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" ht="150">
+      <c r="B19" s="25"/>
+      <c r="C19" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="34" t="s">
+      <c r="D19" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="34" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="375">
+      <c r="A20" s="29"/>
+      <c r="B20" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="34"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:4" ht="75.75">
-      <c r="A12" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="34"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-    </row>
-    <row r="15" spans="1:4" ht="135">
-      <c r="A15" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-    </row>
-    <row r="17" spans="1:4" ht="30.75">
-      <c r="A17" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="120">
-      <c r="B18" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:4" ht="150">
-      <c r="B19" s="38"/>
-      <c r="C19" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="375">
-      <c r="A20" s="42"/>
-      <c r="B20" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
